--- a/spec/files/0_2_0_template_simpletest.xlsx
+++ b/spec/files/0_2_0_template_simpletest.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="4060" windowWidth="28800" windowHeight="17560" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="12000" yWindow="3080" windowWidth="28800" windowHeight="17560" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="615">
   <si>
     <t># Variable</t>
   </si>
@@ -5628,7 +5628,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5807,7 +5807,12 @@
       <c r="F5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>

--- a/spec/files/0_2_0_template_simpletest.xlsx
+++ b/spec/files/0_2_0_template_simpletest.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12000" yWindow="3080" windowWidth="28800" windowHeight="17560" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="51200" windowHeight="28260" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2024" uniqueCount="612">
   <si>
     <t># Variable</t>
   </si>
@@ -1479,12 +1479,6 @@
     <t>(double)</t>
   </si>
   <si>
-    <t>Allow Multiple Jobs</t>
-  </si>
-  <si>
-    <t>Use Server As Worker</t>
-  </si>
-  <si>
     <t>Simulate Data Point Filename</t>
   </si>
   <si>
@@ -1507,9 +1501,6 @@
   </si>
   <si>
     <t>Cluster Name</t>
-  </si>
-  <si>
-    <t>Disable this is the analysis is large</t>
   </si>
   <si>
     <t>Display name of the analysis</t>
@@ -3414,7 +3405,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3469,9 +3460,6 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -5231,11 +5219,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -5270,7 +5256,7 @@
         <v>442</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>443</v>
@@ -5281,7 +5267,7 @@
         <v>472</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>473</v>
@@ -5289,24 +5275,24 @@
     </row>
     <row r="5" spans="1:5" ht="28">
       <c r="A5" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="56">
       <c r="A6" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B6" s="23" t="s">
         <v>492</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>495</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5374,10 +5360,10 @@
         <v>44</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5385,10 +5371,10 @@
         <v>28</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5396,15 +5382,15 @@
         <v>29</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B15" s="23" t="b">
-        <v>1</v>
+      <c r="B15" s="23" t="s">
+        <v>484</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>443</v>
@@ -5412,188 +5398,166 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B16" s="26" t="b">
-        <v>1</v>
+        <v>485</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>571</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>486</v>
-      </c>
-      <c r="E17" s="1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>574</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="32" customFormat="1">
-      <c r="B19" s="33"/>
-    </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="56">
-      <c r="A20" s="12" t="s">
+    <row r="17" spans="1:5" s="31" customFormat="1">
+      <c r="B17" s="32"/>
+    </row>
+    <row r="18" spans="1:5" s="2" customFormat="1" ht="56">
+      <c r="A18" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="14" t="s">
+      <c r="B18" s="24"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="14" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B19" s="23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="56">
-      <c r="A23" s="12" t="s">
+    <row r="21" spans="1:5" s="2" customFormat="1" ht="56">
+      <c r="A21" s="12" t="s">
         <v>466</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="14" t="s">
+      <c r="B21" s="24"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="14" t="s">
         <v>471</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="23">
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>468</v>
+        <v>566</v>
+      </c>
+      <c r="B24" s="30">
+        <v>0.01</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="23">
-        <v>4</v>
+        <v>570</v>
+      </c>
+      <c r="B25" s="30">
+        <v>1E-4</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="B26" s="31">
-        <v>0.01</v>
+        <v>567</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="B27" s="31">
-        <v>1E-4</v>
+        <v>569</v>
+      </c>
+      <c r="B27" s="30">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="B28" s="31" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="B29" s="31">
-        <v>1</v>
-      </c>
+      <c r="B28" s="30"/>
+    </row>
+    <row r="29" spans="1:5" s="2" customFormat="1" ht="28">
+      <c r="A29" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="14"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="B30" s="31"/>
-    </row>
-    <row r="31" spans="1:5" s="2" customFormat="1" ht="28">
-      <c r="A31" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="24" t="s">
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="2" customFormat="1" ht="28">
+      <c r="A32" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>469</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="14"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="2" customFormat="1" ht="28">
-      <c r="A34" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>469</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="14" t="s">
+      <c r="E32" s="14" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="28">
-      <c r="A35" s="1" t="s">
+    <row r="33" spans="1:5" ht="28">
+      <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="B33" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="22" t="s">
-        <v>609</v>
-      </c>
-      <c r="E35" s="2" t="s">
+      <c r="D33" s="22" t="s">
+        <v>606</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="2" customFormat="1" ht="42">
-      <c r="A37" s="12" t="s">
+    <row r="35" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A35" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B35" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C35" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="14"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5611,7 +5575,7 @@
           <x14:formula1>
             <xm:f>Lookups!$A$8:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>B24</xm:sqref>
+          <xm:sqref>B22</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5626,7 +5590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
@@ -5667,28 +5631,28 @@
       <c r="H1" s="6"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
-      <c r="K1" s="27" t="s">
-        <v>498</v>
-      </c>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="29" t="s">
-        <v>499</v>
-      </c>
-      <c r="Q1" s="30"/>
+      <c r="K1" s="26" t="s">
+        <v>495</v>
+      </c>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="28" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q1" s="29"/>
       <c r="R1" s="6"/>
       <c r="S1" s="6"/>
       <c r="T1" s="6"/>
-      <c r="U1" s="34" t="s">
+      <c r="U1" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
     </row>
     <row r="2" spans="1:26" s="9" customFormat="1" ht="15">
       <c r="A2" s="9" t="s">
@@ -5708,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>28</v>
@@ -5747,13 +5711,13 @@
         <v>8</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="P3" s="17" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="R3" s="11" t="s">
         <v>7</v>
@@ -5788,7 +5752,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
@@ -5829,10 +5793,10 @@
         <v>193</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>74</v>
@@ -5885,13 +5849,13 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="Q7" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="8" spans="1:26" customFormat="1" ht="15">
@@ -5929,13 +5893,13 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="Q8" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="9" spans="1:26" customFormat="1" ht="15">
@@ -6002,7 +5966,7 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="8" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -6026,7 +5990,7 @@
         <v>480</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="15" customFormat="1" ht="15">
@@ -6043,13 +6007,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B4" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -6062,13 +6026,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B5" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C5" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -6081,13 +6045,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B6" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C6" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -6103,13 +6067,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C7" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -6125,13 +6089,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B8" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C8" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -6147,13 +6111,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B9" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C9" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -6169,13 +6133,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B10" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C10" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -6191,13 +6155,13 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B11" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C11" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -6213,13 +6177,13 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B12" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C12" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -6235,13 +6199,13 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B13" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C13" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -6257,13 +6221,13 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B14" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C14" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -6279,13 +6243,13 @@
     </row>
     <row r="15" spans="1:7" customFormat="1">
       <c r="A15" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B15" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C15" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -6300,13 +6264,13 @@
     </row>
     <row r="16" spans="1:7" customFormat="1">
       <c r="A16" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B16" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C16" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -6321,13 +6285,13 @@
     </row>
     <row r="17" spans="1:7" customFormat="1">
       <c r="A17" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B17" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C17" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -6342,13 +6306,13 @@
     </row>
     <row r="18" spans="1:7" customFormat="1">
       <c r="A18" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B18" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C18" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -6363,13 +6327,13 @@
     </row>
     <row r="19" spans="1:7" customFormat="1">
       <c r="A19" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B19" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C19" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -6384,13 +6348,13 @@
     </row>
     <row r="20" spans="1:7" customFormat="1">
       <c r="A20" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B20" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C20" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -6405,13 +6369,13 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B21" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C21" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -6427,13 +6391,13 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B22" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C22" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -6449,13 +6413,13 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B23" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C23" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -6471,13 +6435,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B24" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C24" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
@@ -6493,13 +6457,13 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B25" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C25" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
@@ -6515,13 +6479,13 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B26" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C26" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -6537,13 +6501,13 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
+        <v>593</v>
+      </c>
+      <c r="B27" t="s">
+        <v>593</v>
+      </c>
+      <c r="C27" t="s">
         <v>596</v>
-      </c>
-      <c r="B27" t="s">
-        <v>596</v>
-      </c>
-      <c r="C27" t="s">
-        <v>599</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -6559,13 +6523,13 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B28" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C28" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -6581,13 +6545,13 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B29" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C29" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -13981,10 +13945,10 @@
         <v>0</v>
       </c>
       <c r="B328" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C328" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D328" t="s">
         <v>74</v>
@@ -13995,10 +13959,10 @@
         <v>24</v>
       </c>
       <c r="C329" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D329" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E329" t="s">
         <v>1</v>
@@ -14007,10 +13971,10 @@
         <v>68</v>
       </c>
       <c r="H329" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="I329" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="330" spans="1:9">
@@ -14018,10 +13982,10 @@
         <v>24</v>
       </c>
       <c r="C330" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D330" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E330" t="s">
         <v>1</v>
@@ -14038,10 +14002,10 @@
         <v>24</v>
       </c>
       <c r="C331" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D331" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E331" t="s">
         <v>1</v>
@@ -14058,10 +14022,10 @@
         <v>24</v>
       </c>
       <c r="C332" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D332" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E332" t="s">
         <v>1</v>
@@ -14078,10 +14042,10 @@
         <v>24</v>
       </c>
       <c r="C333" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D333" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E333" t="s">
         <v>1</v>
@@ -14095,10 +14059,10 @@
         <v>24</v>
       </c>
       <c r="C334" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D334" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E334" t="s">
         <v>1</v>
@@ -14107,10 +14071,10 @@
         <v>68</v>
       </c>
       <c r="H334" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="I334" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="335" spans="1:9">
@@ -14118,10 +14082,10 @@
         <v>24</v>
       </c>
       <c r="C335" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D335" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E335" t="s">
         <v>1</v>
@@ -14130,10 +14094,10 @@
         <v>68</v>
       </c>
       <c r="H335" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="I335" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="336" spans="1:9">
@@ -14141,10 +14105,10 @@
         <v>0</v>
       </c>
       <c r="B336" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C336" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D336" t="s">
         <v>74</v>
@@ -14155,10 +14119,10 @@
         <v>24</v>
       </c>
       <c r="C337" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D337" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="E337" t="s">
         <v>1</v>
@@ -14167,10 +14131,10 @@
         <v>68</v>
       </c>
       <c r="H337" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="I337" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="338" spans="1:16">
@@ -14178,10 +14142,10 @@
         <v>24</v>
       </c>
       <c r="C338" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D338" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E338" t="s">
         <v>1</v>
@@ -14190,10 +14154,10 @@
         <v>68</v>
       </c>
       <c r="H338" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="I338" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="339" spans="1:16">
@@ -14201,10 +14165,10 @@
         <v>24</v>
       </c>
       <c r="C339" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D339" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E339" t="s">
         <v>1</v>
@@ -14221,10 +14185,10 @@
         <v>24</v>
       </c>
       <c r="C340" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D340" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E340" t="s">
         <v>1</v>
@@ -14241,10 +14205,10 @@
         <v>24</v>
       </c>
       <c r="C341" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D341" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="E341" t="s">
         <v>1</v>
@@ -14258,10 +14222,10 @@
         <v>0</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D342" s="1" t="s">
         <v>74</v>
@@ -14285,10 +14249,10 @@
         <v>24</v>
       </c>
       <c r="C343" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D343" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="E343" t="s">
         <v>1</v>
@@ -14297,10 +14261,10 @@
         <v>68</v>
       </c>
       <c r="H343" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="I343" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="L343" s="1"/>
       <c r="M343" s="1"/>
@@ -14314,10 +14278,10 @@
         <v>24</v>
       </c>
       <c r="C344" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D344" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E344" t="s">
         <v>1</v>
@@ -14352,10 +14316,10 @@
         <v>0</v>
       </c>
       <c r="B345" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C345" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D345" s="1" t="s">
         <v>74</v>
@@ -14366,10 +14330,10 @@
         <v>24</v>
       </c>
       <c r="C346" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="E346" t="s">
         <v>1</v>
@@ -14580,10 +14544,10 @@
         <v>0</v>
       </c>
       <c r="B357" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C357" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D357" t="s">
         <v>74</v>
@@ -14594,10 +14558,10 @@
         <v>24</v>
       </c>
       <c r="C358" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D358" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="E358" t="s">
         <v>1</v>
@@ -14614,10 +14578,10 @@
         <v>24</v>
       </c>
       <c r="C359" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D359" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E359" t="s">
         <v>1</v>
@@ -14634,10 +14598,10 @@
         <v>0</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D360" s="1" t="s">
         <v>74</v>
@@ -14650,10 +14614,10 @@
         <v>24</v>
       </c>
       <c r="C361" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D361" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="E361" t="s">
         <v>1</v>
@@ -14663,10 +14627,10 @@
       </c>
       <c r="G361"/>
       <c r="H361" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="I361" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="J361"/>
       <c r="K361"/>
@@ -14677,10 +14641,10 @@
         <v>25</v>
       </c>
       <c r="C362" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D362" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E362" t="s">
         <v>14</v>
@@ -14717,10 +14681,10 @@
         <v>0</v>
       </c>
       <c r="B363" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C363" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D363" s="1" t="s">
         <v>74</v>
@@ -14731,10 +14695,10 @@
         <v>24</v>
       </c>
       <c r="C364" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D364" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E364" t="s">
         <v>1</v>
@@ -14751,10 +14715,10 @@
         <v>0</v>
       </c>
       <c r="B365" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C365" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D365" s="1" t="s">
         <v>74</v>
@@ -14765,10 +14729,10 @@
         <v>24</v>
       </c>
       <c r="C366" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D366" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E366" t="s">
         <v>1</v>
